--- a/data/xls/full-power-global-rankings.xlsx
+++ b/data/xls/full-power-global-rankings.xlsx
@@ -5322,20 +5322,24 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Marco Galindo</t>
+          <t>Joseph Borenstein</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>marcogalindo</t>
+          <t>josephborenstein</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>marcogalindojr</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
+          <t>joe.borenstein</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>blue_to_purple_to_red</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr">
         <is>
           <t>USA</t>
@@ -5348,12 +5352,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>WRPF</t>
+          <t>USAPL</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2024-03-02</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -5361,10 +5365,14 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>OH</t>
+        </is>
+      </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>wrpf-usa/23c3</t>
+          <t>usapl/NS-2024-03-J</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -5379,47 +5387,43 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>21</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>MR-O</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>89.7</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
+          <t>74.9</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr">
         <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>202.5</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
           <t>332.5</t>
         </is>
       </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>215</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>360</t>
-        </is>
-      </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>907.5</t>
+          <t>820</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>587.78</t>
+          <t>588.44</t>
         </is>
       </c>
     </row>
@@ -5432,50 +5436,54 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Evie Corrigan</t>
+          <t>Marco Galindo</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>eviecorrigan</t>
+          <t>marcogalindo</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>beeevie</t>
+          <t>marcogalindojr</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>New Zealand</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr"/>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>USA-FL</t>
+        </is>
+      </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>IPF</t>
+          <t>WRPF</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2024-02-10</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>ipf/2401</t>
+          <t>wrpf-usa/23c3</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -5485,7 +5493,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>29</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
@@ -5495,33 +5503,37 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>51.8</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr"/>
+          <t>89.7</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>167.5</t>
+          <t>332.5</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>215</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>208.5</t>
+          <t>360</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>907.5</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>587.47</t>
+          <t>587.78</t>
         </is>
       </c>
     </row>
@@ -5534,53 +5546,45 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Barbara Lee #1</t>
+          <t>Evie Corrigan</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>barbaralee1</t>
+          <t>eviecorrigan</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>msbarbellbarbie</t>
+          <t>beeevie</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>USA-GA</t>
-        </is>
-      </c>
+          <t>New Zealand</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>USPA</t>
+          <t>IPF</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2022-09-24</t>
+          <t>2024-02-10</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>uspa/2022-163</t>
+          <t>ipf/2401</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -5595,7 +5599,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>27</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
@@ -5605,37 +5609,33 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>67.4</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>67.5</t>
-        </is>
-      </c>
+          <t>51.8</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr">
         <is>
-          <t>202.5</t>
+          <t>167.5</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>105</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>208.5</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>567.5</t>
+          <t>481</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>586.39</t>
+          <t>587.47</t>
         </is>
       </c>
     </row>
@@ -5648,49 +5648,53 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Alana Hynes D'Aquino</t>
+          <t>Barbara Lee #1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>alanahynesdaquino</t>
+          <t>barbaralee1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>alana_hynes_daquino</t>
+          <t>msbarbellbarbie</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr"/>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>USA-GA</t>
+        </is>
+      </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>GPC-AUS</t>
+          <t>USPA</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2022-09-24</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>NSW</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>gpc-aus/2318</t>
+          <t>uspa/2022-163</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -5705,12 +5709,12 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>40</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>F-OR</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -5730,12 +5734,12 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>120</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>245</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
@@ -5758,53 +5762,49 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Stacy Burr</t>
+          <t>Alana Hynes D'Aquino</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>stacyburr</t>
+          <t>alanahynesdaquino</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>bamaburr</t>
+          <t>alana_hynes_daquino</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>USA-SC</t>
-        </is>
-      </c>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>IPL</t>
+          <t>GPC-AUS</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2017-05-20</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>NSW</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>uspa/0844</t>
+          <t>gpc-aus/2318</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -5819,17 +5819,17 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>F-OR</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>66.9</t>
+          <t>67.4</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -5839,27 +5839,27 @@
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>202.5</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>127.5</t>
+          <t>125</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>227.5</t>
+          <t>240</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>567.5</t>
         </is>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>586.33</t>
+          <t>586.39</t>
         </is>
       </c>
     </row>
@@ -5872,17 +5872,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Brittany Bowles</t>
+          <t>Stacy Burr</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>brittanybowles</t>
+          <t>stacyburr</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>brittany_shack</t>
+          <t>bamaburr</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -5891,15 +5891,19 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>USA-SC</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>WRPF</t>
+          <t>IPL</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2023-02-18</t>
+          <t>2017-05-20</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -5914,7 +5918,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>wrpf-usa/2306</t>
+          <t>uspa/0844</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -5929,47 +5933,47 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>25</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>Pro Open</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>59.7</t>
+          <t>66.9</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>67.5</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>182.5</t>
+          <t>210</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>127.5</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>227.5</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>527.5</t>
+          <t>565</t>
         </is>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>586.30</t>
+          <t>586.33</t>
         </is>
       </c>
     </row>
@@ -5982,24 +5986,20 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Dan Green</t>
+          <t>Brittany Bowles</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>dangreen</t>
+          <t>brittanybowles</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>dangreenpowerlifter</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
+          <t>brittany_shack</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
           <t>USA</t>
@@ -6008,12 +6008,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>RUPC</t>
+          <t>WRPF</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>2014-02-07</t>
+          <t>2023-02-18</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -6028,12 +6028,12 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>rupc/2014-rum7</t>
+          <t>wrpf-usa/2306</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -6043,47 +6043,47 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>M-MW</t>
+          <t>Pro Open</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>59.7</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>60</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>355.5</t>
+          <t>182.5</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>227.5</t>
+          <t>130</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>215</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>952.5</t>
+          <t>527.5</t>
         </is>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>586.28</t>
+          <t>586.30</t>
         </is>
       </c>
     </row>
@@ -6096,38 +6096,38 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Drake Stephens #1</t>
+          <t>Dan Green</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>drakestephens1</t>
+          <t>dangreen</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>drake.stephens.25</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
+          <t>dangreenpowerlifter</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>USA-WV</t>
-        </is>
-      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>WRPF</t>
+          <t>RUPC</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>2023-10-28</t>
+          <t>2014-02-07</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -6137,12 +6137,12 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>wrpf-usa/23e1</t>
+          <t>rupc/2014-rum7</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -6157,47 +6157,47 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>31</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>M-MW</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>89.8</t>
+          <t>100</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>100</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>312.5</t>
+          <t>355.5</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>227.5</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>357.5</t>
+          <t>375</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>905</t>
+          <t>952.5</t>
         </is>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>585.83</t>
+          <t>586.28</t>
         </is>
       </c>
     </row>
@@ -6210,17 +6210,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Maliek Derstine</t>
+          <t>Drake Stephens #1</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>maliekderstine</t>
+          <t>drakestephens1</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>maliekderstine</t>
+          <t>drake.stephens.25</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -6231,17 +6231,17 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>USA-PA</t>
+          <t>USA-WV</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>USPA</t>
+          <t>WRPF</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>2016-01-23</t>
+          <t>2023-10-28</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -6251,12 +6251,12 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>uspa/0544</t>
+          <t>wrpf-usa/23e1</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -6271,7 +6271,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>33</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
@@ -6281,37 +6281,37 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>82.2</t>
+          <t>89.8</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>82.5</t>
+          <t>90</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>312.5</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>237.5</t>
+          <t>235</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>357.5</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>862.5</t>
+          <t>905</t>
         </is>
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>585.46</t>
+          <t>585.83</t>
         </is>
       </c>
     </row>
@@ -6324,15 +6324,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Fernando Arias</t>
+          <t>Maliek Derstine</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>fernandoarias</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
+          <t>maliekderstine</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>maliekderstine</t>
+        </is>
+      </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
@@ -6346,12 +6350,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>NPL</t>
+          <t>USPA</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2016-01-23</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -6361,12 +6365,12 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>npl/2305</t>
+          <t>uspa/0544</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -6391,37 +6395,37 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>133.4</t>
+          <t>82.2</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>82.5</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>325</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>242.5</t>
+          <t>237.5</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>300</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>1052.5</t>
+          <t>862.5</t>
         </is>
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>584.83</t>
+          <t>585.46</t>
         </is>
       </c>
     </row>
@@ -6434,49 +6438,49 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Krzysztof Wierzbicki</t>
+          <t>Fernando Arias</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>krzysztofwierzbicki</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>mr.deadlift</t>
-        </is>
-      </c>
+          <t>fernandoarias</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Poland</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr"/>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>USA-PA</t>
+        </is>
+      </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>NAP</t>
+          <t>NPL</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>2020-03-08</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>KYA</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>nap/2001</t>
+          <t>npl/2305</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -6491,47 +6495,47 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>Elite Open</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>97.9</t>
+          <t>133.4</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>385</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>197.5</t>
+          <t>242.5</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>433.5</t>
+          <t>425</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>941</t>
+          <t>1052.5</t>
         </is>
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>584.63</t>
+          <t>584.83</t>
         </is>
       </c>
     </row>
@@ -6544,49 +6548,49 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Shane Haller</t>
+          <t>Krzysztof Wierzbicki</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>shanehaller</t>
+          <t>krzysztofwierzbicki</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>shanehaller</t>
+          <t>mr.deadlift</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>WRPF</t>
+          <t>NAP</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>2022-02-12</t>
+          <t>2020-03-08</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>KYA</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>wrpf-usa/2203</t>
+          <t>nap/2001</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -6606,42 +6610,42 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Elite Open</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>139.4</t>
+          <t>97.9</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>100</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>310</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>252.5</t>
+          <t>197.5</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>392.5</t>
+          <t>433.5</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>1065</t>
+          <t>941</t>
         </is>
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>584.35</t>
+          <t>584.63</t>
         </is>
       </c>
     </row>
@@ -6654,34 +6658,34 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Andrea Armstrong</t>
+          <t>Shane Haller</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>andreaarmstrong</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
+          <t>shanehaller</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>shanehaller</t>
+        </is>
+      </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>USA-AL</t>
-        </is>
-      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>IPL</t>
+          <t>WRPF</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>2023-11-03</t>
+          <t>2022-02-12</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -6696,12 +6700,12 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>uspa/2995</t>
+          <t>wrpf-usa/2203</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -6711,7 +6715,7 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>29</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
@@ -6721,37 +6725,37 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>139.4</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>420</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>252.5</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>392.5</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>1065</t>
         </is>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>583.64</t>
+          <t>584.35</t>
         </is>
       </c>
     </row>
@@ -6764,19 +6768,15 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Meghan Scanlon</t>
+          <t>Andrea Armstrong</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>meghanscanlon</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>megscanlift</t>
-        </is>
-      </c>
+          <t>andreaarmstrong</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
@@ -6785,17 +6785,17 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>USA-MA</t>
+          <t>USA-AL</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>IPL</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>2023-11-11</t>
+          <t>2023-11-03</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -6805,12 +6805,12 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>amp/2023-TX-09</t>
+          <t>uspa/2995</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -6825,47 +6825,47 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>21</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>FR-O</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>60</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>192.5</t>
+          <t>195</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>195</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>542.5</t>
+          <t>510</t>
         </is>
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>583.47</t>
+          <t>583.64</t>
         </is>
       </c>
     </row>
@@ -6878,17 +6878,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Bobb Matthews</t>
+          <t>Meghan Scanlon</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>bobbmatthews</t>
+          <t>meghanscanlon</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ssjbobb</t>
+          <t>megscanlift</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -6899,17 +6899,17 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>USA-NY</t>
+          <t>USA-MA</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>USAPL</t>
+          <t>AMP</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>2023-03-04</t>
+          <t>2023-11-11</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -6919,17 +6919,17 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>usapl/NS-2023-03-F</t>
+          <t>amp/2023-TX-09</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -6939,43 +6939,47 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>25~</t>
+          <t>35</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>MR-O</t>
+          <t>FR-O</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>97.5</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr"/>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>347.5</t>
+          <t>192.5</t>
         </is>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>135</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>215</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>937.5</t>
+          <t>542.5</t>
         </is>
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>583.36</t>
+          <t>583.47</t>
         </is>
       </c>
     </row>
@@ -6988,17 +6992,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Daniel Bell #1</t>
+          <t>Bobb Matthews</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>danielbell1</t>
+          <t>bobbmatthews</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>dbell_74</t>
+          <t>ssjbobb</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -7007,15 +7011,19 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>USA-NY</t>
+        </is>
+      </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>RPS</t>
+          <t>USAPL</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>2020-02-29</t>
+          <t>2023-03-04</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -7025,12 +7033,12 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>rps/2008</t>
+          <t>usapl/NS-2023-03-F</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -7045,47 +7053,43 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>25~</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>Pro Open</t>
+          <t>MR-O</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>174.1</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>140+</t>
-        </is>
-      </c>
+          <t>97.5</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>347.5</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>262.5</t>
+          <t>220</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>370</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>1127.5</t>
+          <t>937.5</t>
         </is>
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>583.10</t>
+          <t>583.36</t>
         </is>
       </c>
     </row>
@@ -7098,17 +7102,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Alisha Luna</t>
+          <t>Daniel Bell #1</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>alishaluna</t>
+          <t>danielbell1</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>a_l_u_n_a</t>
+          <t>dbell_74</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -7117,19 +7121,15 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>USA-CO</t>
-        </is>
-      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>WRPF</t>
+          <t>RPS</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>2023-09-22</t>
+          <t>2020-02-29</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -7137,15 +7137,19 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>wrpf-usa/23c1</t>
+          <t>rps/2008</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -7155,47 +7159,47 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Pro Open</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>174.1</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>140+</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>455</t>
         </is>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>262.5</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>410</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>1127.5</t>
         </is>
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>582.89</t>
+          <t>583.10</t>
         </is>
       </c>
     </row>
@@ -7208,17 +7212,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Shane Hunt</t>
+          <t>Alisha Luna</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>shanehunt</t>
+          <t>alishaluna</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>huntpowerlifting</t>
+          <t>a_l_u_n_a</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -7229,17 +7233,17 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>USA-FL</t>
+          <t>USA-CO</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>USPA</t>
+          <t>WRPF</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>2022-09-24</t>
+          <t>2023-09-22</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -7247,19 +7251,15 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>uspa/2022-163</t>
+          <t>wrpf-usa/23c1</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -7269,7 +7269,7 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
@@ -7279,37 +7279,37 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>120.2</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>52</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>165</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>100</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>210</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>1015</t>
+          <t>475</t>
         </is>
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>582.60</t>
+          <t>582.89</t>
         </is>
       </c>
     </row>
@@ -7322,17 +7322,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Omar Villegas #1</t>
+          <t>Shane Hunt</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>omarvillegas1</t>
+          <t>shanehunt</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>_swolemar</t>
+          <t>huntpowerlifting</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -7343,17 +7343,17 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>USA-KS</t>
+          <t>USA-FL</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>WRPF</t>
+          <t>USPA</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2022-09-24</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -7361,10 +7361,14 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>wrpf-usa/23c3</t>
+          <t>uspa/2022-163</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -7379,7 +7383,7 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
@@ -7389,37 +7393,37 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>94.5</t>
+          <t>120.2</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>125</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>360</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>230</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>372.5</t>
+          <t>425</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>922.5</t>
+          <t>1015</t>
         </is>
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>582.49</t>
+          <t>582.60</t>
         </is>
       </c>
     </row>
@@ -7432,45 +7436,49 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Keenan Lee</t>
+          <t>Omar Villegas #1</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>keenanlee</t>
+          <t>omarvillegas1</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>arandomkoreandude</t>
+          <t>_swolemar</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>South Korea</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr"/>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>USA-KS</t>
+        </is>
+      </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>USAPL</t>
+          <t>WRPF</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>2022-12-17</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>usapl/KOR-2022-02</t>
+          <t>wrpf-usa/23c3</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -7485,47 +7493,47 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>28~</t>
+          <t>26</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>MR-O</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>102.9</t>
+          <t>94.5</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>100</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>362.5</t>
+          <t>330</t>
         </is>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>217.5</t>
+          <t>220</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>377.5</t>
+          <t>372.5</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>957.5</t>
+          <t>922.5</t>
         </is>
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>582.16</t>
+          <t>582.49</t>
         </is>
       </c>
     </row>
@@ -7538,41 +7546,45 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Andrzej Stanaszek</t>
+          <t>Keenan Lee</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>andrzejstanaszek</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr"/>
+          <t>keenanlee</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>arandomkoreandude</t>
+        </is>
+      </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>EPF</t>
+          <t>USAPL</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>2002-05-09</t>
+          <t>2022-12-17</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>epf/0201</t>
+          <t>usapl/KOR-2022-02</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -7587,47 +7599,47 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>30~</t>
+          <t>28~</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>MR-O</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>51.3</t>
+          <t>102.9</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>110</t>
         </is>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>362.5</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>217.5</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>377.5</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>957.5</t>
         </is>
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>582.15</t>
+          <t>582.16</t>
         </is>
       </c>
     </row>
@@ -7640,58 +7652,46 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Jenn Rotsinger</t>
+          <t>Andrzej Stanaszek</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>jennrotsinger</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>jrotsinger</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>rainbow</t>
-        </is>
-      </c>
+          <t>andrzejstanaszek</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>USPA</t>
+          <t>EPF</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>2019-08-03</t>
+          <t>2002-05-09</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>TX</t>
-        </is>
-      </c>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>uspa/1539</t>
+          <t>epf/0201</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>30~</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
@@ -7711,7 +7711,7 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>51.3</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -7721,27 +7721,27 @@
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>167.5</t>
+          <t>290</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>170</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>202.5</t>
+          <t>140</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>600</t>
         </is>
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>581.00</t>
+          <t>582.15</t>
         </is>
       </c>
     </row>
@@ -7754,30 +7754,30 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Josh Lentz</t>
+          <t>Jenn Rotsinger</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>joshlentz</t>
+          <t>jennrotsinger</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>jlentz220</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr"/>
+          <t>jrotsinger</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>rainbow</t>
+        </is>
+      </c>
       <c r="G67" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>USA-IA</t>
-        </is>
-      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
           <t>USPA</t>
@@ -7785,7 +7785,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>2019-10-12</t>
+          <t>2019-08-03</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -7795,17 +7795,17 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>uspa/1607</t>
+          <t>uspa/1539</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>41</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
@@ -7825,37 +7825,37 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>97.9</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>52</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>347.5</t>
+          <t>167.5</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>95</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>337.5</t>
+          <t>202.5</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>465</t>
         </is>
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>580.90</t>
+          <t>581.00</t>
         </is>
       </c>
     </row>
@@ -7868,17 +7868,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Luke Nall</t>
+          <t>Josh Lentz</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>lukenall</t>
+          <t>joshlentz</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>lukenall56</t>
+          <t>jlentz220</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -7889,17 +7889,17 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>USA-IL</t>
+          <t>USA-IA</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>WRPF</t>
+          <t>USPA</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>2023-10-28</t>
+          <t>2019-10-12</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -7909,12 +7909,12 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>wrpf-usa/23e1</t>
+          <t>uspa/1607</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -7929,7 +7929,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>31</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
@@ -7939,37 +7939,37 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>155.3</t>
+          <t>97.9</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>140+</t>
+          <t>100</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>432.5</t>
+          <t>347.5</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>277.5</t>
+          <t>250</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>337.5</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>1090</t>
+          <t>935</t>
         </is>
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>580.77</t>
+          <t>580.90</t>
         </is>
       </c>
     </row>
@@ -7982,45 +7982,53 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Kjell Egil Bakkelund</t>
+          <t>Luke Nall</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>kjellegilbakkelund</t>
+          <t>lukenall</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>kjelllbrell</t>
+          <t>lukenall56</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr"/>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>USA-IL</t>
+        </is>
+      </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>EPF</t>
+          <t>WRPF</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>2023-12-04</t>
+          <t>2023-10-28</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Estonia</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr"/>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>epf/2310</t>
+          <t>wrpf-usa/23e1</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -8035,7 +8043,7 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>34~</t>
+          <t>28</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
@@ -8045,37 +8053,37 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>73.6</t>
+          <t>155.3</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>140+</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>262.5</t>
+          <t>432.5</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>207.5</t>
+          <t>277.5</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>380</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>1090</t>
         </is>
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>580.71</t>
+          <t>580.77</t>
         </is>
       </c>
     </row>
@@ -8088,49 +8096,45 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Husameddin Ateyia</t>
+          <t>Kjell Egil Bakkelund</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>husameddinateyia</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr"/>
+          <t>kjellegilbakkelund</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>kjelllbrell</t>
+        </is>
+      </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>USA-MI</t>
-        </is>
-      </c>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>WRPF</t>
+          <t>EPF</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>2023-05-07</t>
+          <t>2023-12-04</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>wrpf-usa/2338</t>
+          <t>epf/2310</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -8145,7 +8149,7 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>34~</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
@@ -8155,37 +8159,37 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>109.2</t>
+          <t>73.6</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>74</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>262.5</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>227.5</t>
+          <t>207.5</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>330</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>977.5</t>
+          <t>800</t>
         </is>
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>580.44</t>
+          <t>580.71</t>
         </is>
       </c>
     </row>
@@ -8198,19 +8202,15 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Daniel Clements</t>
+          <t>Husameddin Ateyia</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>danielclements</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>danlsann</t>
-        </is>
-      </c>
+          <t>husameddinateyia</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
@@ -8219,17 +8219,17 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>USA-VA</t>
+          <t>USA-MI</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>USAPL</t>
+          <t>WRPF</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>2023-09-14</t>
+          <t>2023-05-07</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -8239,12 +8239,12 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>NV</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>usapl/NS-2023-03-K</t>
+          <t>wrpf-usa/2338</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -8259,47 +8259,47 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>MR-O</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>109.2</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>67.5</t>
+          <t>110</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>385</t>
         </is>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>162.5</t>
+          <t>227.5</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>365</t>
         </is>
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>745.5</t>
+          <t>977.5</t>
         </is>
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>579.22</t>
+          <t>580.44</t>
         </is>
       </c>
     </row>
@@ -8312,24 +8312,20 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Joe Sullivan</t>
+          <t>Daniel Clements</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>joesullivan</t>
+          <t>danielclements</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>joesullivan_aod</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>lightblue</t>
-        </is>
-      </c>
+          <t>danlsann</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
           <t>USA</t>
@@ -8337,17 +8333,17 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>USA-NV</t>
+          <t>USA-VA</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>WRPF</t>
+          <t>USAPL</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>2023-03-25</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -8355,10 +8351,14 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>wrpf-usa/2313</t>
+          <t>usapl/NS-2023-03-K</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -8373,47 +8373,47 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>MR-O</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>99.9</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>67.5</t>
         </is>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>260</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>162.5</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>327.5</t>
+          <t>323</t>
         </is>
       </c>
       <c r="W72" t="inlineStr">
         <is>
-          <t>938.5</t>
+          <t>745.5</t>
         </is>
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>577.91</t>
+          <t>579.22</t>
         </is>
       </c>
     </row>
@@ -8426,49 +8426,53 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Sergey Fedosienko</t>
+          <t>Joe Sullivan</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>sergeyfedosienko</t>
+          <t>joesullivan</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>sergey_fedosienko</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr"/>
+          <t>joesullivan_aod</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>lightblue</t>
+        </is>
+      </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr"/>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>USA-NV</t>
+        </is>
+      </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>FPR</t>
+          <t>WRPF</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>2015-12-24</t>
+          <t>2023-03-25</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>NIZ</t>
-        </is>
-      </c>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>fpr/1501</t>
+          <t>wrpf-usa/2313</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -8483,7 +8487,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
@@ -8493,37 +8497,37 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>58.5</t>
+          <t>99.9</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>100</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>226.5</t>
+          <t>386</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>170.5</t>
+          <t>225</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>327.5</t>
         </is>
       </c>
       <c r="W73" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>938.5</t>
         </is>
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>577.54</t>
+          <t>577.91</t>
         </is>
       </c>
     </row>
@@ -8536,53 +8540,49 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Dennis Cornelius</t>
+          <t>Sergey Fedosienko</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>denniscornelius</t>
+          <t>sergeyfedosienko</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>denniscornelius500</t>
+          <t>sergey_fedosienko</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>USA-OK</t>
-        </is>
-      </c>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>USPA</t>
+          <t>FPR</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>2017-12-02</t>
+          <t>2015-12-24</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NIZ</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>uspa/0999</t>
+          <t>fpr/1501</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -8597,7 +8597,7 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>33</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
@@ -8607,37 +8607,37 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>124.7</t>
+          <t>58.5</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>59</t>
         </is>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>226.5</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>170.5</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>273</t>
         </is>
       </c>
       <c r="W74" t="inlineStr">
         <is>
-          <t>1015</t>
+          <t>670</t>
         </is>
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>575.69</t>
+          <t>577.54</t>
         </is>
       </c>
     </row>
@@ -8650,45 +8650,45 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>April Mathis</t>
+          <t>Laura Sancho</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>aprilmathis</t>
+          <t>laurasancho</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>England</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>APF</t>
+          <t>GPU</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>2010-06-05</t>
+          <t>2024-03-01</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>apf/1035</t>
+          <t>gpu/2401</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -8703,47 +8703,43 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>22~</t>
+          <t>34</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>F_OR_APF</t>
+          <t>Women's Classic Raw Open Prime</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>113.4</t>
-        </is>
-      </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>90+</t>
-        </is>
-      </c>
+          <t>80.3</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr">
         <is>
-          <t>272.1</t>
+          <t>220</t>
         </is>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>174.6</t>
+          <t>120</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>258.5</t>
+          <t>272.5</t>
         </is>
       </c>
       <c r="W75" t="inlineStr">
         <is>
-          <t>705.3</t>
+          <t>612.5</t>
         </is>
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>575.65</t>
+          <t>576.06</t>
         </is>
       </c>
     </row>
@@ -8756,24 +8752,20 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Joseph Borenstein</t>
+          <t>Dennis Cornelius</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>josephborenstein</t>
+          <t>denniscornelius</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>joe.borenstein</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>blue_to_purple_to_red</t>
-        </is>
-      </c>
+          <t>denniscornelius500</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
           <t>USA</t>
@@ -8781,17 +8773,17 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>USA-FL</t>
+          <t>USA-OK</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>USAPL</t>
+          <t>USPA</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>2023-09-14</t>
+          <t>2017-12-02</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -8801,12 +8793,12 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>usapl/NS-2023-03-K</t>
+          <t>uspa/0999</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -8821,47 +8813,47 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>37</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>MR-O</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>74.7</t>
+          <t>124.7</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>125</t>
         </is>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>272.5</t>
+          <t>410</t>
         </is>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>260</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>345</t>
         </is>
       </c>
       <c r="W76" t="inlineStr">
         <is>
-          <t>800.5</t>
+          <t>1015</t>
         </is>
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>575.33</t>
+          <t>575.69</t>
         </is>
       </c>
     </row>
@@ -8874,38 +8866,30 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Brandon Pitre</t>
+          <t>April Mathis</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>brandonpitre</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>bllessedt</t>
-        </is>
-      </c>
+          <t>aprilmathis</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>USA-TX</t>
-        </is>
-      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>USAPL</t>
+          <t>APF</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>2023-06-03</t>
+          <t>2010-06-05</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -8915,17 +8899,17 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>usapl/SC-2023-03</t>
+          <t>apf/1035</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -8935,43 +8919,47 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>27~</t>
+          <t>22~</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>MR-O</t>
+          <t>F_OR_APF</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>89.7</t>
-        </is>
-      </c>
-      <c r="S77" t="inlineStr"/>
+          <t>113.4</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>90+</t>
+        </is>
+      </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>272.1</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>174.6</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>372.5</t>
+          <t>258.5</t>
         </is>
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>887.5</t>
+          <t>705.3</t>
         </is>
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>574.83</t>
+          <t>575.65</t>
         </is>
       </c>
     </row>
@@ -8984,50 +8972,58 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Joy Nnamani</t>
+          <t>Brandon Pitre</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>joynnamani</t>
+          <t>brandonpitre</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>j_nnamani</t>
+          <t>bllessedt</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr"/>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>USA-TX</t>
+        </is>
+      </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>IPF</t>
+          <t>USAPL</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>2023-03-25</t>
+          <t>2023-06-03</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr"/>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>ipf/2301</t>
+          <t>usapl/SC-2023-03</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -9037,43 +9033,43 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>30~</t>
+          <t>27~</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>MR-O</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>89.7</t>
         </is>
       </c>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>310</t>
         </is>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>205</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>230.5</t>
+          <t>372.5</t>
         </is>
       </c>
       <c r="W78" t="inlineStr">
         <is>
-          <t>500.5</t>
+          <t>887.5</t>
         </is>
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>574.74</t>
+          <t>574.83</t>
         </is>
       </c>
     </row>
@@ -9086,54 +9082,50 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Bryan Duncan</t>
+          <t>Joy Nnamani</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>bryanduncan</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr"/>
+          <t>joynnamani</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>j_nnamani</t>
+        </is>
+      </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>USA-NJ</t>
-        </is>
-      </c>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>WRPF</t>
+          <t>IPF</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>2023-10-28</t>
+          <t>2023-03-25</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>VA</t>
-        </is>
-      </c>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>wrpf-usa/23e1</t>
+          <t>ipf/2301</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -9143,7 +9135,7 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>30~</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
@@ -9153,37 +9145,33 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>107.9</t>
-        </is>
-      </c>
-      <c r="S79" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr">
         <is>
-          <t>317.5</t>
+          <t>170</t>
         </is>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>217.5</t>
+          <t>100</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>427.5</t>
+          <t>230.5</t>
         </is>
       </c>
       <c r="W79" t="inlineStr">
         <is>
-          <t>962.5</t>
+          <t>500.5</t>
         </is>
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>574.27</t>
+          <t>574.74</t>
         </is>
       </c>
     </row>
@@ -9196,26 +9184,26 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Tamara Walcott</t>
+          <t>Bryan Duncan</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>tamarawalcott</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>plussize_fitqueen4.0</t>
-        </is>
-      </c>
+          <t>bryanduncan</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>US Virgin Islands</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr"/>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>USA-NJ</t>
+        </is>
+      </c>
       <c r="I80" t="inlineStr">
         <is>
           <t>WRPF</t>
@@ -9223,7 +9211,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>2022-07-29</t>
+          <t>2023-10-28</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -9238,12 +9226,12 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>wrpf-usa/2224</t>
+          <t>wrpf-usa/23e1</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -9253,7 +9241,7 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>24</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
@@ -9263,37 +9251,37 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>134.3</t>
+          <t>107.9</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>110</t>
         </is>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>272.5</t>
+          <t>317.5</t>
         </is>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>172.5</t>
+          <t>217.5</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>427.5</t>
         </is>
       </c>
       <c r="W80" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>962.5</t>
         </is>
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>574.17</t>
+          <t>574.27</t>
         </is>
       </c>
     </row>
@@ -9306,27 +9294,23 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Chloe Lansing</t>
+          <t>Tamara Walcott</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>chloelansing</t>
+          <t>tamarawalcott</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>chlo.mae.l</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>blue_to_lightblue</t>
-        </is>
-      </c>
+          <t>plussize_fitqueen4.0</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>US Virgin Islands</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -9337,7 +9321,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>2021-02-20</t>
+          <t>2022-07-29</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -9347,12 +9331,12 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>wrpf-usa/2103</t>
+          <t>wrpf-usa/2224</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -9367,47 +9351,47 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>38</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Submasters 35-39</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>67.3</t>
+          <t>134.3</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>67.5</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>207.5</t>
+          <t>272.5</t>
         </is>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>172.5</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>237.5</t>
+          <t>290</t>
         </is>
       </c>
       <c r="W81" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>735</t>
         </is>
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>573.96</t>
+          <t>574.17</t>
         </is>
       </c>
     </row>
@@ -9420,23 +9404,27 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Panagiotis Perentis</t>
+          <t>Chloe Lansing</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>panagiotisperentis</t>
+          <t>chloelansing</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>panagiotis_perentis</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr"/>
+          <t>chlo.mae.l</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>blue_to_lightblue</t>
+        </is>
+      </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
@@ -9447,7 +9435,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>2023-02-18</t>
+          <t>2021-02-20</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -9462,12 +9450,12 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>wrpf-usa/2306</t>
+          <t>wrpf-usa/2103</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -9482,42 +9470,42 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>Pro Open</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>88.5</t>
+          <t>67.3</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>67.5</t>
         </is>
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>207.5</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>110</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>237.5</t>
         </is>
       </c>
       <c r="W82" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>555</t>
         </is>
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>573.90</t>
+          <t>573.96</t>
         </is>
       </c>
     </row>
@@ -9530,38 +9518,34 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Tess Heaslip</t>
+          <t>Panagiotis Perentis</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>tessheaslip</t>
+          <t>panagiotisperentis</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>tessredsky</t>
+          <t>panagiotis_perentis</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>USA-LA</t>
-        </is>
-      </c>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>USPA</t>
+          <t>WRPF</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>2018-08-25</t>
+          <t>2023-02-18</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -9571,17 +9555,17 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>uspa/1212</t>
+          <t>wrpf-usa/2306</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -9591,47 +9575,47 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>29</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Pro Open</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>74.7</t>
+          <t>88.5</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>90</t>
         </is>
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>227.5</t>
+          <t>320</t>
         </is>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>135.5</t>
+          <t>185</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>227.5</t>
+          <t>375</t>
         </is>
       </c>
       <c r="W83" t="inlineStr">
         <is>
-          <t>587.5</t>
+          <t>880</t>
         </is>
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>573.43</t>
+          <t>573.90</t>
         </is>
       </c>
     </row>
@@ -9644,17 +9628,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Stan Efferding</t>
+          <t>Tess Heaslip</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>stanefferding</t>
+          <t>tessheaslip</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>stanefferding</t>
+          <t>tessredsky</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -9663,15 +9647,19 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>USA-LA</t>
+        </is>
+      </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>SPF</t>
+          <t>USPA</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>2011-05-15</t>
+          <t>2018-08-25</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -9681,17 +9669,17 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>spf-archive/0178</t>
+          <t>uspa/1212</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -9701,47 +9689,47 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>25</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>Heavy</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>124.7</t>
+          <t>74.7</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>75</t>
         </is>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>387.5</t>
+          <t>227.5</t>
         </is>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>135.5</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>347.5</t>
+          <t>227.5</t>
         </is>
       </c>
       <c r="W84" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>587.5</t>
         </is>
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>572.80</t>
+          <t>573.43</t>
         </is>
       </c>
     </row>
@@ -9754,45 +9742,49 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Timothy Monigatti</t>
+          <t>Stan Efferding</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>timothymonigatti</t>
+          <t>stanefferding</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>tim_monigatti</t>
+          <t>stanefferding</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>IPF</t>
+          <t>SPF</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>2024-02-10</t>
+          <t>2011-05-15</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr"/>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>ipf/2401</t>
+          <t>spf-archive/0178</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -9807,43 +9799,47 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>43</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Heavy</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>73.7</t>
-        </is>
-      </c>
-      <c r="S85" t="inlineStr"/>
+          <t>124.7</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>288.5</t>
+          <t>387.5</t>
         </is>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>275</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>347.5</t>
         </is>
       </c>
       <c r="W85" t="inlineStr">
         <is>
-          <t>789.5</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>572.79</t>
+          <t>572.80</t>
         </is>
       </c>
     </row>
@@ -9856,49 +9852,45 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Russel Orhii</t>
+          <t>Timothy Monigatti</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>russelorhii</t>
+          <t>timothymonigatti</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>russwole</t>
+          <t>tim_monigatti</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>USA-TX</t>
-        </is>
-      </c>
+          <t>New Zealand</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>USAPL</t>
+          <t>IPF</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>2022-12-17</t>
+          <t>2024-02-10</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>usapl/KOR-2022-02</t>
+          <t>ipf/2401</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -9913,47 +9905,43 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>27~</t>
+          <t>27</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>MR-O</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>89.8</t>
-        </is>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
+          <t>73.7</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>288.5</t>
         </is>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>170</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>331</t>
         </is>
       </c>
       <c r="W86" t="inlineStr">
         <is>
-          <t>885</t>
+          <t>789.5</t>
         </is>
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>572.69</t>
+          <t>572.79</t>
         </is>
       </c>
     </row>
@@ -9966,17 +9954,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Kiersten Scurlock</t>
+          <t>Russel Orhii</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>kierstenscurlock</t>
+          <t>russelorhii</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>scurko_savage</t>
+          <t>russwole</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -9987,37 +9975,33 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>USA-IL</t>
+          <t>USA-TX</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>USPA</t>
+          <t>USAPL</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>2022-01-15</t>
+          <t>2022-12-17</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>FL</t>
-        </is>
-      </c>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>uspa/2359</t>
+          <t>usapl/KOR-2022-02</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -10027,47 +10011,47 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27~</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>MR-O</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>102.8</t>
+          <t>89.8</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>90</t>
         </is>
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>340</t>
         </is>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>195</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>257.5</t>
+          <t>350</t>
         </is>
       </c>
       <c r="W87" t="inlineStr">
         <is>
-          <t>677.5</t>
+          <t>885</t>
         </is>
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>572.08</t>
+          <t>572.69</t>
         </is>
       </c>
     </row>
@@ -10080,17 +10064,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Brandon Striegel</t>
+          <t>Kiersten Scurlock</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>brandonstriegel</t>
+          <t>kierstenscurlock</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>brandon_striegel</t>
+          <t>scurko_savage</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -10101,7 +10085,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>USA-IN</t>
+          <t>USA-IL</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -10111,7 +10095,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>2021-12-05</t>
+          <t>2022-01-15</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -10121,17 +10105,17 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>KY</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>uspa/2323</t>
+          <t>uspa/2359</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -10141,7 +10125,7 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>29</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
@@ -10151,7 +10135,7 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>108.6</t>
+          <t>102.8</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
@@ -10161,27 +10145,27 @@
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>265</t>
         </is>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>155</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>257.5</t>
         </is>
       </c>
       <c r="W88" t="inlineStr">
         <is>
-          <t>960</t>
+          <t>677.5</t>
         </is>
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>571.35</t>
+          <t>572.08</t>
         </is>
       </c>
     </row>
@@ -10194,17 +10178,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Dwardly Edouard</t>
+          <t>Brandon Striegel</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>dwardlyedouard</t>
+          <t>brandonstriegel</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>debo_flex</t>
+          <t>brandon_striegel</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -10215,17 +10199,17 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>USA-DE</t>
+          <t>USA-IN</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>WRPF</t>
+          <t>USPA</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2021-12-05</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -10235,12 +10219,12 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>KY</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>wrpf-usa/23e0</t>
+          <t>uspa/2323</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -10255,7 +10239,7 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
@@ -10265,37 +10249,37 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>97.6</t>
+          <t>108.6</t>
         </is>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>110</t>
         </is>
       </c>
       <c r="T89" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>330</t>
         </is>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>220</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>367.5</t>
+          <t>410</t>
         </is>
       </c>
       <c r="W89" t="inlineStr">
         <is>
-          <t>917.5</t>
+          <t>960</t>
         </is>
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>570.68</t>
+          <t>571.35</t>
         </is>
       </c>
     </row>
@@ -10308,17 +10292,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Cody Wilson #1</t>
+          <t>Dwardly Edouard</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>codywilson1</t>
+          <t>dwardlyedouard</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>cody.wilson</t>
+          <t>debo_flex</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -10329,7 +10313,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>USA-OH</t>
+          <t>USA-DE</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -10339,7 +10323,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>2023-10-28</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -10354,7 +10338,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>wrpf-usa/23e1</t>
+          <t>wrpf-usa/23e0</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -10369,17 +10353,17 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>27</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>J20-23</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>99.5</t>
+          <t>97.6</t>
         </is>
       </c>
       <c r="S90" t="inlineStr">
@@ -10389,27 +10373,27 @@
       </c>
       <c r="T90" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>335</t>
         </is>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>215</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>367.5</t>
         </is>
       </c>
       <c r="W90" t="inlineStr">
         <is>
-          <t>925</t>
+          <t>917.5</t>
         </is>
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>570.59</t>
+          <t>570.68</t>
         </is>
       </c>
     </row>
@@ -10422,45 +10406,53 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Gustav Hedlund</t>
+          <t>Cody Wilson #1</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>gustavhedlund</t>
+          <t>codywilson1</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>gustav.hedlund</t>
+          <t>cody.wilson</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr"/>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>USA-OH</t>
+        </is>
+      </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>IPF</t>
+          <t>WRPF</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>2024-02-10</t>
+          <t>2023-10-28</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr"/>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>ipf/2401</t>
+          <t>wrpf-usa/23e1</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -10475,7 +10467,7 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>28~</t>
+          <t>21</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
@@ -10485,33 +10477,37 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>92.7</t>
-        </is>
-      </c>
-      <c r="S91" t="inlineStr"/>
+          <t>99.5</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>340</t>
         </is>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>245</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>340</t>
         </is>
       </c>
       <c r="W91" t="inlineStr">
         <is>
-          <t>895</t>
+          <t>925</t>
         </is>
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>570.33</t>
+          <t>570.59</t>
         </is>
       </c>
     </row>
@@ -10524,23 +10520,23 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Anatolii Novopismennyi</t>
+          <t>Gustav Hedlund</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>anatoliinovopismennyi</t>
+          <t>gustavhedlund</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>novopysmennyi</t>
+          <t>gustav.hedlund</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
@@ -10551,18 +10547,18 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>2021-09-23</t>
+          <t>2024-02-10</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
         <is>
-          <t>ipf/2103</t>
+          <t>ipf/2401</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -10577,7 +10573,7 @@
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>24~</t>
+          <t>28~</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
@@ -10587,37 +10583,33 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>102.8</t>
-        </is>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
+          <t>92.7</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>325</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>215</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>352.5</t>
+          <t>355</t>
         </is>
       </c>
       <c r="W92" t="inlineStr">
         <is>
-          <t>937.5</t>
+          <t>895</t>
         </is>
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>570.28</t>
+          <t>570.33</t>
         </is>
       </c>
     </row>
@@ -10630,49 +10622,45 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Ben Pollack</t>
+          <t>Anatolii Novopismennyi</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>benpollack</t>
+          <t>anatoliinovopismennyi</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>phdeadlift</t>
+          <t>novopysmennyi</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>WRPF</t>
+          <t>IPF</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>2016-08-19</t>
+          <t>2021-09-23</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
-          <t>wrpf-usa/bob3</t>
+          <t>ipf/2103</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -10687,47 +10675,47 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>24~</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>Pro MR-O</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>86.7</t>
+          <t>102.8</t>
         </is>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>105</t>
         </is>
       </c>
       <c r="T93" t="inlineStr">
         <is>
-          <t>317.5</t>
+          <t>360</t>
         </is>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>192.5</t>
+          <t>225</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>352.5</t>
         </is>
       </c>
       <c r="W93" t="inlineStr">
         <is>
-          <t>865</t>
+          <t>937.5</t>
         </is>
       </c>
       <c r="X93" t="inlineStr">
         <is>
-          <t>570.11</t>
+          <t>570.28</t>
         </is>
       </c>
     </row>
@@ -10740,17 +10728,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Michael Estrella</t>
+          <t>Ben Pollack</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>michaelestrella</t>
+          <t>benpollack</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>mikeyestrella</t>
+          <t>phdeadlift</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -10759,19 +10747,15 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>USA-WA</t>
-        </is>
-      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>USA-UA</t>
+          <t>WRPF</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>2019-08-30</t>
+          <t>2016-08-19</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -10786,7 +10770,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>wrpf-usa/bob6</t>
+          <t>wrpf-usa/bob3</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -10801,27 +10785,27 @@
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Pro MR-O</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>67.3</t>
+          <t>86.7</t>
         </is>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>67.5</t>
+          <t>90</t>
         </is>
       </c>
       <c r="T94" t="inlineStr">
         <is>
-          <t>242.5</t>
+          <t>317.5</t>
         </is>
       </c>
       <c r="U94" t="inlineStr">
@@ -10831,17 +10815,17 @@
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>355</t>
         </is>
       </c>
       <c r="W94" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>865</t>
         </is>
       </c>
       <c r="X94" t="inlineStr">
         <is>
-          <t>570.03</t>
+          <t>570.11</t>
         </is>
       </c>
     </row>
@@ -10854,17 +10838,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Delaney Wallace</t>
+          <t>Michael Estrella</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>delaneywallace</t>
+          <t>michaelestrella</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>dlaneywallace</t>
+          <t>mikeyestrella</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -10873,26 +10857,34 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>USA-WA</t>
+        </is>
+      </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>IPF</t>
+          <t>USA-UA</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>2024-02-10</t>
+          <t>2019-08-30</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr"/>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>ipf/2401</t>
+          <t>wrpf-usa/bob6</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -10907,7 +10899,7 @@
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>33</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
@@ -10917,33 +10909,37 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>82.7</t>
-        </is>
-      </c>
-      <c r="S95" t="inlineStr"/>
+          <t>67.3</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>67.5</t>
+        </is>
+      </c>
       <c r="T95" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>242.5</t>
         </is>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>207.5</t>
+          <t>192.5</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>303</t>
         </is>
       </c>
       <c r="W95" t="inlineStr">
         <is>
-          <t>842.5</t>
+          <t>738</t>
         </is>
       </c>
       <c r="X95" t="inlineStr">
         <is>
-          <t>569.73</t>
+          <t>570.03</t>
         </is>
       </c>
     </row>
@@ -10956,23 +10952,23 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Carl Johansson</t>
+          <t>Delaney Wallace</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>carljohansson</t>
+          <t>delaneywallace</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>deadlift.miyagi</t>
+          <t>dlaneywallace</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
@@ -11009,7 +11005,7 @@
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>29</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
@@ -11019,33 +11015,33 @@
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>73.7</t>
+          <t>82.7</t>
         </is>
       </c>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>305</t>
         </is>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>207.5</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>330.5</t>
+          <t>330</t>
         </is>
       </c>
       <c r="W96" t="inlineStr">
         <is>
-          <t>785.5</t>
+          <t>842.5</t>
         </is>
       </c>
       <c r="X96" t="inlineStr">
         <is>
-          <t>569.68</t>
+          <t>569.73</t>
         </is>
       </c>
     </row>
@@ -11058,49 +11054,45 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Zebulun Drake</t>
+          <t>Carl Johansson</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>zebulundrake</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr"/>
+          <t>carljohansson</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>deadlift.miyagi</t>
+        </is>
+      </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>USA-MS</t>
-        </is>
-      </c>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>USPA</t>
+          <t>IPF</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>2023-11-18</t>
+          <t>2024-02-10</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>FL</t>
-        </is>
-      </c>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>uspa/3002</t>
+          <t>ipf/2401</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -11115,7 +11107,7 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>23</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
@@ -11125,37 +11117,33 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>142.7</t>
-        </is>
-      </c>
-      <c r="S97" t="inlineStr">
-        <is>
-          <t>140+</t>
-        </is>
-      </c>
+          <t>73.7</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>270</t>
         </is>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>185</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>330.5</t>
         </is>
       </c>
       <c r="W97" t="inlineStr">
         <is>
-          <t>1045</t>
+          <t>785.5</t>
         </is>
       </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>569.64</t>
+          <t>569.68</t>
         </is>
       </c>
     </row>
@@ -11168,24 +11156,16 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Maxavier Jean-Philippe</t>
+          <t>Zebulun Drake</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>maxavierjeanphilippe</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>rpemax</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>redgold_anim bold</t>
-        </is>
-      </c>
+          <t>zebulundrake</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
           <t>USA</t>
@@ -11193,17 +11173,17 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>USA-NY</t>
+          <t>USA-MS</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>WRPF</t>
+          <t>USPA</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>2021-09-25</t>
+          <t>2023-11-18</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -11213,12 +11193,12 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>wrpf-usa/2123</t>
+          <t>uspa/3002</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -11233,7 +11213,7 @@
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr">
@@ -11243,22 +11223,22 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>109.5</t>
+          <t>142.7</t>
         </is>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>140+</t>
         </is>
       </c>
       <c r="T98" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>400</t>
         </is>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>250</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
@@ -11268,12 +11248,12 @@
       </c>
       <c r="W98" t="inlineStr">
         <is>
-          <t>960</t>
+          <t>1045</t>
         </is>
       </c>
       <c r="X98" t="inlineStr">
         <is>
-          <t>569.56</t>
+          <t>569.64</t>
         </is>
       </c>
     </row>
@@ -11286,45 +11266,57 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Jonathan Cayco</t>
+          <t>Maxavier Jean-Philippe</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>jonathancayco</t>
+          <t>maxavierjeanphilippe</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>league_of_lifting</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr"/>
+          <t>rpemax</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>redgold_anim bold</t>
+        </is>
+      </c>
       <c r="G99" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>USA-NY</t>
+        </is>
+      </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>IPF</t>
+          <t>WRPF</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>2024-02-10</t>
+          <t>2021-09-25</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr"/>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>ipf/2401</t>
+          <t>wrpf-usa/2123</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -11339,7 +11331,7 @@
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>28</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
@@ -11349,33 +11341,37 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>92.6</t>
-        </is>
-      </c>
-      <c r="S99" t="inlineStr"/>
+          <t>109.5</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
       <c r="T99" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>330</t>
         </is>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>245.5</t>
+          <t>235</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>347.5</t>
+          <t>395</t>
         </is>
       </c>
       <c r="W99" t="inlineStr">
         <is>
-          <t>893</t>
+          <t>960</t>
         </is>
       </c>
       <c r="X99" t="inlineStr">
         <is>
-          <t>569.21</t>
+          <t>569.56</t>
         </is>
       </c>
     </row>
@@ -11388,57 +11384,45 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Andrew Herbert</t>
+          <t>Jonathan Cayco</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>andrewherbert</t>
+          <t>jonathancayco</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>herbietheluvbug</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>purple</t>
-        </is>
-      </c>
+          <t>league_of_lifting</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>USA-CA</t>
-        </is>
-      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>SPF</t>
+          <t>IPF</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>2018-11-10</t>
+          <t>2024-02-10</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t>spf/1846</t>
+          <t>ipf/2401</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -11453,7 +11437,7 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>31</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
@@ -11463,37 +11447,33 @@
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
+          <t>92.6</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>300</t>
         </is>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>207.5</t>
+          <t>245.5</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>347.5</t>
         </is>
       </c>
       <c r="W100" t="inlineStr">
         <is>
-          <t>957.5</t>
+          <t>893</t>
         </is>
       </c>
       <c r="X100" t="inlineStr">
         <is>
-          <t>568.98</t>
+          <t>569.21</t>
         </is>
       </c>
     </row>
@@ -11506,50 +11486,62 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Jessica Buettner</t>
+          <t>Andrew Herbert</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>jessicabuettner</t>
+          <t>andrewherbert</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>djessicabuettner</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr"/>
+          <t>herbietheluvbug</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>purple</t>
+        </is>
+      </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr"/>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>USA-CA</t>
+        </is>
+      </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>IPF</t>
+          <t>SPF</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>2022-06-06</t>
+          <t>2018-11-10</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>South Africa</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr"/>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>ipf/2203</t>
+          <t>spf/1846</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -11559,7 +11551,7 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>36</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
@@ -11569,37 +11561,37 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>75.2</t>
+          <t>109</t>
         </is>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>110</t>
         </is>
       </c>
       <c r="T101" t="inlineStr">
         <is>
-          <t>218.5</t>
+          <t>360</t>
         </is>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>207.5</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>261.5</t>
+          <t>390</t>
         </is>
       </c>
       <c r="W101" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>957.5</t>
         </is>
       </c>
       <c r="X101" t="inlineStr">
         <is>
-          <t>568.78</t>
+          <t>568.98</t>
         </is>
       </c>
     </row>
